--- a/doc-contents/integrations/integrations.xlsx
+++ b/doc-contents/integrations/integrations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/integrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC64B4E-2765-1244-990A-ED2A21F93F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B1704-E53A-9A49-853B-47E3CF93101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="1320" windowWidth="29100" windowHeight="17980" xr2:uid="{AA9A63E5-237F-7B40-85EB-63F6645E581E}"/>
   </bookViews>
   <sheets>
     <sheet name="integrations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Platform</t>
   </si>
@@ -129,13 +129,19 @@
   </si>
   <si>
     <t>search in site</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Custom code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +166,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Apple Color Emoji"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -214,12 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +237,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F447121-E730-7542-BB18-1C8B98BCCAC3}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,22 +598,23 @@
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -601,142 +623,162 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="85" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="68" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="8" t="str">
         <f>E3</f>
         <v>🟣</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="8" t="str">
         <f>E4</f>
         <v>🟣</v>
       </c>
-      <c r="G4" s="8" t="str">
-        <f>G3</f>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="str">
+        <f>H3</f>
         <v>buildConfig.yml</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="34" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="8" t="str">
         <f>E4</f>
         <v>🟣</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="str">
+        <f>E5</f>
+        <v>🟣</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="51" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="8" t="str">
         <f>E5</f>
         <v>🟣</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="8" t="str">
         <f>E5</f>
         <v>🟣</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="51" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="8" t="str">
         <f>E5</f>
         <v>🟣</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="68" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="8" t="str">
         <f>E7</f>
         <v>🟣</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="12" t="str">
+        <f>G5</f>
+        <v>🟣</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f>I5</f>
+        <v>Custom code</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
